--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ELGA e-Medication Medications (eMedMedications)</t>
+    <t>9 ELGA e-Medication Medications (eMedMedications)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:01:25+00:00</t>
+    <t>2024-04-29T05:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,7 +579,13 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-medikationdarreichungsform</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept defining the form of a medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -691,9 +697,6 @@
   </si>
   <si>
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1149,7 +1152,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.28515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2826,11 +2829,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2863,24 +2868,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2903,13 +2908,13 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2960,7 +2965,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2981,7 +2986,7 @@
         <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
@@ -2989,10 +2994,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3015,16 +3020,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3074,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3095,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
@@ -3103,10 +3108,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3129,13 +3134,13 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3186,7 +3191,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3195,7 +3200,7 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
@@ -3207,7 +3212,7 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>75</v>
@@ -3215,10 +3220,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3247,7 +3252,7 @@
         <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>137</v>
@@ -3300,7 +3305,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3321,7 +3326,7 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -3329,14 +3334,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3358,10 +3363,10 @@
         <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>137</v>
@@ -3416,7 +3421,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3445,10 +3450,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3471,17 +3476,17 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3506,11 +3511,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3528,7 +3533,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3549,18 +3554,18 @@
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3583,17 +3588,17 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3642,7 +3647,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3663,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>75</v>
@@ -3671,10 +3676,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3697,13 +3702,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3730,13 +3735,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -3754,7 +3759,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3769,24 +3774,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3809,13 +3814,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3866,7 +3871,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3881,13 +3886,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -3895,10 +3900,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3921,13 +3926,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3978,7 +3983,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3987,7 +3992,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
@@ -3999,7 +4004,7 @@
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4007,10 +4012,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4039,7 +4044,7 @@
         <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>137</v>
@@ -4092,7 +4097,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4113,7 +4118,7 @@
         <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4121,14 +4126,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4150,10 +4155,10 @@
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>137</v>
@@ -4208,7 +4213,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4237,10 +4242,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4263,13 +4268,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4320,7 +4325,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4340,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4344,15 +4349,15 @@
         <v>151</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4375,13 +4380,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4432,7 +4437,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4447,24 +4452,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4487,13 +4492,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4544,7 +4549,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>9 ELGA e-Medication Medications (eMedMedications)</t>
+    <t>ELGA e-Medication Medications (eMedMedications)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:29:51+00:00</t>
+    <t>2024-04-29T05:40:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
